--- a/biology/Botanique/Charquican/Charquican.xlsx
+++ b/biology/Botanique/Charquican/Charquican.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le charquicán chilien est un ragoût à base de morceaux de pomme de terre, de haricots verts, de grains de maïs et de petits bouts de viande de cheval. Il peut également contenir des feuilles de coca émiettées et, dans certaines régions, de la tomate (tomatican).
